--- a/ResultadoEleicoesDistritos/LEIRIA_FIGUEIRÓ DOS VINHOS.xlsx
+++ b/ResultadoEleicoesDistritos/LEIRIA_FIGUEIRÓ DOS VINHOS.xlsx
@@ -597,64 +597,64 @@
         <v>1518</v>
       </c>
       <c r="H2" t="n">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="J2" t="n">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L2" t="n">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="M2" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="N2" t="n">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="n">
         <v>0</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
+        <v>9</v>
+      </c>
+      <c r="S2" t="n">
+        <v>75</v>
+      </c>
+      <c r="T2" t="n">
+        <v>116</v>
+      </c>
+      <c r="U2" t="n">
+        <v>9</v>
+      </c>
+      <c r="V2" t="n">
+        <v>991</v>
+      </c>
+      <c r="W2" t="n">
         <v>1</v>
       </c>
-      <c r="R2" t="n">
-        <v>8</v>
-      </c>
-      <c r="S2" t="n">
-        <v>73</v>
-      </c>
-      <c r="T2" t="n">
-        <v>117</v>
-      </c>
-      <c r="U2" t="n">
-        <v>13</v>
-      </c>
-      <c r="V2" t="n">
-        <v>962</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
       <c r="X2" t="n">
-        <v>958</v>
+        <v>977</v>
       </c>
       <c r="Y2" t="n">
         <v>2</v>
       </c>
       <c r="Z2" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="AA2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
